--- a/biology/Zoologie/Hyphilaria_anthias/Hyphilaria_anthias.xlsx
+++ b/biology/Zoologie/Hyphilaria_anthias/Hyphilaria_anthias.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hyphilaria anthias est un insecte lépidoptère appartenant à la famille  des Riodinidae et au genre Hyphilaria.
 </t>
@@ -511,12 +523,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Hyphilaria anthias a été décrit par William Chapman Hewitson en 1874 sous le nom de Nymhidium anthias[1].
-Sous-espèces
-Hyphilaria anthias anthias
-Hyphilaria anthias orsedice Godman, 1903 ; présent au Venezuela et en Guyana.</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyphilaria anthias a été décrit par William Chapman Hewitson en 1874 sous le nom de Nymhidium anthias.
+</t>
         </is>
       </c>
     </row>
@@ -541,14 +553,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hyphilaria anthias est un petit papillon blanc (d'une envergure d'environ 23 mm) dont l'apex des ailes antérieures forme un angle bien marqué, avec une bordure noir au bord costal des ailes antérieures et une bordure plus large du bord externe des ailes antérieures et des ailes postérieures[2].
-Le revers est semblable.
-</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Hyphilaria anthias anthias
+Hyphilaria anthias orsedice Godman, 1903 ; présent au Venezuela et en Guyana.</t>
         </is>
       </c>
     </row>
@@ -573,10 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyphilaria anthias est un petit papillon blanc (d'une envergure d'environ 23 mm) dont l'apex des ailes antérieures forme un angle bien marqué, avec une bordure noir au bord costal des ailes antérieures et une bordure plus large du bord externe des ailes antérieures et des ailes postérieures.
+Le revers est semblable.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -599,15 +624,79 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hyphilaria_anthias</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyphilaria_anthias</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyphilaria anthias est présent en Guyane, en Guyana, au Surinam, au Venezuela, en Colombie, en Équateur, en Bolivie et au Pérou[1],[3].
-Biotope
-Protection
-Pas de statut de protection particulier.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyphilaria anthias est présent en Guyane, en Guyana, au Surinam, au Venezuela, en Colombie, en Équateur, en Bolivie et au Pérou,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hyphilaria_anthias</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hyphilaria_anthias</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
